--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/FLORIDA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/FLORIDA_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1646"/>
+  <dimension ref="A1:D1640"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C36">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C37">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C40">
@@ -947,7 +947,7 @@
         <v>22</v>
       </c>
       <c r="D43">
-        <v>0.0009539088583445345</v>
+        <v>0.0009539088583445344</v>
       </c>
     </row>
     <row r="44">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C50">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C57">
@@ -1285,7 +1285,7 @@
         <v>22</v>
       </c>
       <c r="D69">
-        <v>0.0009539088583445345</v>
+        <v>0.0009539088583445344</v>
       </c>
     </row>
     <row r="70">
@@ -1499,7 +1499,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C86">
@@ -1512,7 +1512,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C87">
@@ -1564,7 +1564,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C91">
@@ -1629,7 +1629,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C96">
@@ -1785,7 +1785,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C108">
@@ -1798,7 +1798,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C109">
@@ -1850,7 +1850,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Santiago el Pinar</t>
+          <t>Santiago El Pinar</t>
         </is>
       </c>
       <c r="C113">
@@ -2336,7 +2336,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C150">
@@ -2362,7 +2362,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C152">
@@ -2408,7 +2408,7 @@
         <v>22</v>
       </c>
       <c r="D155">
-        <v>0.0009539088583445345</v>
+        <v>0.0009539088583445344</v>
       </c>
     </row>
     <row r="156">
@@ -2453,7 +2453,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C159">
@@ -2479,7 +2479,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C161">
@@ -2660,7 +2660,7 @@
         <v>22</v>
       </c>
       <c r="D174">
-        <v>0.0009539088583445345</v>
+        <v>0.0009539088583445344</v>
       </c>
     </row>
     <row r="175">
@@ -2705,7 +2705,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C178">
@@ -2853,7 +2853,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C189">
@@ -2879,7 +2879,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2936,7 +2936,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C195">
@@ -3292,7 +3292,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C222">
@@ -3409,7 +3409,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C231">
@@ -3422,7 +3422,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C232">
@@ -3526,12 +3526,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C240">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C242">
@@ -3570,7 +3570,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C243">
@@ -3583,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C244">
@@ -3661,7 +3661,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C250">
@@ -3765,7 +3765,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C258">
@@ -3785,7 +3785,7 @@
         <v>22</v>
       </c>
       <c r="D259">
-        <v>0.0009539088583445345</v>
+        <v>0.0009539088583445344</v>
       </c>
     </row>
     <row r="260">
@@ -3830,7 +3830,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C263">
@@ -3921,7 +3921,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C270">
@@ -4090,7 +4090,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C283">
@@ -4162,7 +4162,7 @@
         <v>22</v>
       </c>
       <c r="D288">
-        <v>0.0009539088583445345</v>
+        <v>0.0009539088583445344</v>
       </c>
     </row>
     <row r="289">
@@ -4233,7 +4233,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C294">
@@ -4246,7 +4246,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C295">
@@ -4272,7 +4272,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C297">
@@ -4402,7 +4402,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C307">
@@ -4532,7 +4532,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C317">
@@ -4597,7 +4597,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C322">
@@ -4610,7 +4610,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C323">
@@ -4623,7 +4623,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C324">
@@ -4636,7 +4636,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C325">
@@ -4810,7 +4810,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C338">
@@ -4823,14 +4823,14 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C339">
         <v>22</v>
       </c>
       <c r="D339">
-        <v>0.0009539088583445345</v>
+        <v>0.0009539088583445344</v>
       </c>
     </row>
     <row r="340">
@@ -4927,7 +4927,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C347">
@@ -4979,7 +4979,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C351">
@@ -5083,7 +5083,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C359">
@@ -5135,7 +5135,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C363">
@@ -5161,7 +5161,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C365">
@@ -5187,7 +5187,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C367">
@@ -5213,7 +5213,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C369">
@@ -5239,7 +5239,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C371">
@@ -5304,7 +5304,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C376">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C382">
@@ -5426,7 +5426,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C385">
@@ -5439,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C386">
@@ -5491,7 +5491,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C390">
@@ -5504,7 +5504,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C391">
@@ -5530,7 +5530,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C393">
@@ -5543,7 +5543,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C394">
@@ -5582,7 +5582,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C397">
@@ -5595,7 +5595,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C398">
@@ -5608,7 +5608,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C399">
@@ -5621,7 +5621,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C400">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C405">
@@ -5699,7 +5699,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C406">
@@ -5751,7 +5751,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C410">
@@ -5764,7 +5764,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C411">
@@ -5842,7 +5842,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C417">
@@ -5855,14 +5855,14 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C418">
         <v>23</v>
       </c>
       <c r="D418">
-        <v>0.0009972683519056497</v>
+        <v>0.0009972683519056495</v>
       </c>
     </row>
     <row r="419">
@@ -5881,7 +5881,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C420">
@@ -5894,7 +5894,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C421">
@@ -5920,7 +5920,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C423">
@@ -5959,7 +5959,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C426">
@@ -6128,7 +6128,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C439">
@@ -6154,7 +6154,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C441">
@@ -6180,7 +6180,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C443">
@@ -6206,7 +6206,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C445">
@@ -6258,7 +6258,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C449">
@@ -6271,7 +6271,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C450">
@@ -6432,7 +6432,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C462">
@@ -6510,7 +6510,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C468">
@@ -6523,7 +6523,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C469">
@@ -6582,7 +6582,7 @@
         <v>23</v>
       </c>
       <c r="D473">
-        <v>0.0009972683519056497</v>
+        <v>0.0009972683519056495</v>
       </c>
     </row>
     <row r="474">
@@ -6601,7 +6601,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C475">
@@ -6666,7 +6666,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C480">
@@ -6718,7 +6718,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C484">
@@ -6757,7 +6757,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C487">
@@ -6835,7 +6835,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C493">
@@ -6848,7 +6848,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C494">
@@ -6861,7 +6861,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C495">
@@ -6874,7 +6874,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C496">
@@ -6900,7 +6900,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C498">
@@ -6913,7 +6913,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C499">
@@ -6952,7 +6952,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C502">
@@ -7030,7 +7030,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C508">
@@ -7043,7 +7043,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C509">
@@ -7095,7 +7095,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C513">
@@ -7121,7 +7121,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C515">
@@ -7134,7 +7134,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C516">
@@ -7147,7 +7147,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C517">
@@ -7251,7 +7251,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C525">
@@ -7264,7 +7264,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C526">
@@ -7277,7 +7277,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C527">
@@ -7329,7 +7329,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C531">
@@ -7399,7 +7399,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C536">
@@ -7464,7 +7464,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C541">
@@ -7490,7 +7490,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C543">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C548">
@@ -7659,7 +7659,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C556">
@@ -7711,7 +7711,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C560">
@@ -7724,7 +7724,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C561">
@@ -7763,7 +7763,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C564">
@@ -7828,7 +7828,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C569">
@@ -7919,7 +7919,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C576">
@@ -7984,7 +7984,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C581">
@@ -7997,7 +7997,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C582">
@@ -8010,7 +8010,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C583">
@@ -8036,7 +8036,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C585">
@@ -8049,7 +8049,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C586">
@@ -8088,7 +8088,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C589">
@@ -8127,7 +8127,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C592">
@@ -8140,7 +8140,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C593">
@@ -8166,7 +8166,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C595">
@@ -8179,7 +8179,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C596">
@@ -8257,7 +8257,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C602">
@@ -8270,7 +8270,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C603">
@@ -8283,7 +8283,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C604">
@@ -8322,7 +8322,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C607">
@@ -8335,7 +8335,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C608">
@@ -8374,7 +8374,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C611">
@@ -8665,7 +8665,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C633">
@@ -9439,7 +9439,7 @@
         <v>23</v>
       </c>
       <c r="D692">
-        <v>0.0009972683519056497</v>
+        <v>0.0009972683519056495</v>
       </c>
     </row>
     <row r="693">
@@ -9510,7 +9510,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C698">
@@ -9814,7 +9814,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C721">
@@ -9970,7 +9970,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C733">
@@ -10048,7 +10048,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C739">
@@ -10061,7 +10061,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C740">
@@ -10139,7 +10139,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C746">
@@ -10196,7 +10196,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C750">
@@ -10235,7 +10235,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C753">
@@ -10300,7 +10300,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C758">
@@ -10539,7 +10539,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C776">
@@ -10565,7 +10565,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C778">
@@ -10591,7 +10591,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C780">
@@ -10630,7 +10630,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C783">
@@ -10687,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C787">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C796">
@@ -10817,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C797">
@@ -10843,7 +10843,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C799">
@@ -10882,7 +10882,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C802">
@@ -10895,7 +10895,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C803">
@@ -10921,7 +10921,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C805">
@@ -10934,7 +10934,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C806">
@@ -10947,7 +10947,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C807">
@@ -10960,7 +10960,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C808">
@@ -10973,20 +10973,20 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C809">
         <v>22</v>
       </c>
       <c r="D809">
-        <v>0.0009539088583445345</v>
+        <v>0.0009539088583445344</v>
       </c>
     </row>
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C810">
@@ -10999,7 +10999,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C811">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C812">
@@ -11090,7 +11090,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C818">
@@ -11110,7 +11110,7 @@
         <v>23</v>
       </c>
       <c r="D819">
-        <v>0.0009972683519056497</v>
+        <v>0.0009972683519056495</v>
       </c>
     </row>
     <row r="820">
@@ -11129,7 +11129,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C821">
@@ -11155,7 +11155,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C823">
@@ -11181,7 +11181,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C825">
@@ -11194,7 +11194,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C826">
@@ -11207,7 +11207,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C827">
@@ -11233,7 +11233,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C829">
@@ -11246,7 +11246,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C830">
@@ -11350,7 +11350,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C838">
@@ -11506,7 +11506,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C850">
@@ -11545,7 +11545,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C853">
@@ -11584,7 +11584,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C856">
@@ -11805,7 +11805,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C873">
@@ -12000,7 +12000,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C888">
@@ -12013,7 +12013,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C889">
@@ -12026,7 +12026,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C890">
@@ -12488,7 +12488,7 @@
         <v>22</v>
       </c>
       <c r="D925">
-        <v>0.0009539088583445345</v>
+        <v>0.0009539088583445344</v>
       </c>
     </row>
     <row r="926">
@@ -12559,7 +12559,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C931">
@@ -12572,7 +12572,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C932">
@@ -12715,7 +12715,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C943">
@@ -12858,7 +12858,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C954">
@@ -12871,7 +12871,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C955">
@@ -13170,7 +13170,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C978">
@@ -13235,7 +13235,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C983">
@@ -13359,7 +13359,7 @@
         <v>22</v>
       </c>
       <c r="D992">
-        <v>0.0009539088583445345</v>
+        <v>0.0009539088583445344</v>
       </c>
     </row>
     <row r="993">
@@ -13391,7 +13391,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C995">
@@ -13814,7 +13814,7 @@
         <v>22</v>
       </c>
       <c r="D1027">
-        <v>0.0009539088583445345</v>
+        <v>0.0009539088583445344</v>
       </c>
     </row>
     <row r="1028">
@@ -14067,7 +14067,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1047">
@@ -14314,7 +14314,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1066">
@@ -14327,7 +14327,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C1067">
@@ -14340,7 +14340,7 @@
     <row r="1068">
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1068">
@@ -14353,7 +14353,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1069">
@@ -14366,7 +14366,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1070">
@@ -14379,7 +14379,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1071">
@@ -14392,7 +14392,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1072">
@@ -14444,7 +14444,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1076">
@@ -14457,7 +14457,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1077">
@@ -14470,7 +14470,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1078">
@@ -14483,7 +14483,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1079">
@@ -14496,7 +14496,7 @@
     <row r="1080">
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1080">
@@ -14509,7 +14509,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C1081">
@@ -14522,7 +14522,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1082">
@@ -14548,7 +14548,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1084">
@@ -14568,7 +14568,7 @@
         <v>2268</v>
       </c>
       <c r="D1085">
-        <v>0.09833933139660929</v>
+        <v>0.09833933139660928</v>
       </c>
     </row>
     <row r="1086">
@@ -14774,7 +14774,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1101">
@@ -14885,7 +14885,7 @@
         <v>23</v>
       </c>
       <c r="D1109">
-        <v>0.0009972683519056497</v>
+        <v>0.0009972683519056495</v>
       </c>
     </row>
     <row r="1110">
@@ -14917,7 +14917,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1112">
@@ -14995,7 +14995,7 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1118">
@@ -15021,7 +15021,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1120">
@@ -15034,7 +15034,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1121">
@@ -15164,7 +15164,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1131">
@@ -15229,7 +15229,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1136">
@@ -15307,7 +15307,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1142">
@@ -15424,7 +15424,7 @@
     <row r="1151">
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1151">
@@ -15528,7 +15528,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1159">
@@ -15606,7 +15606,7 @@
     <row r="1165">
       <c r="B1165" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1165">
@@ -15632,7 +15632,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1167">
@@ -15645,7 +15645,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1168">
@@ -15697,7 +15697,7 @@
     <row r="1172">
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1172">
@@ -15775,7 +15775,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1178">
@@ -15827,7 +15827,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1182">
@@ -15853,7 +15853,7 @@
     <row r="1184">
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1184">
@@ -15866,7 +15866,7 @@
     <row r="1185">
       <c r="B1185" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1185">
@@ -15918,7 +15918,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1189">
@@ -16100,7 +16100,7 @@
     <row r="1203">
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1203">
@@ -16152,7 +16152,7 @@
     <row r="1207">
       <c r="B1207" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1207">
@@ -16326,7 +16326,7 @@
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1220">
@@ -16352,7 +16352,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1222">
@@ -16430,7 +16430,7 @@
     <row r="1228">
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1228">
@@ -16443,7 +16443,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1229">
@@ -16482,7 +16482,7 @@
     <row r="1232">
       <c r="B1232" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1232">
@@ -16521,7 +16521,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1235">
@@ -16624,7 +16624,7 @@
         <v>22</v>
       </c>
       <c r="D1242">
-        <v>0.0009539088583445345</v>
+        <v>0.0009539088583445344</v>
       </c>
     </row>
     <row r="1243">
@@ -16700,7 +16700,7 @@
     <row r="1248">
       <c r="B1248" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1248">
@@ -16713,7 +16713,7 @@
     <row r="1249">
       <c r="B1249" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1249">
@@ -16791,7 +16791,7 @@
     <row r="1255">
       <c r="B1255" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1255">
@@ -16921,7 +16921,7 @@
     <row r="1265">
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1265">
@@ -16999,7 +16999,7 @@
     <row r="1271">
       <c r="B1271" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1271">
@@ -17077,7 +17077,7 @@
     <row r="1277">
       <c r="B1277" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1277">
@@ -17103,7 +17103,7 @@
     <row r="1279">
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1279">
@@ -17194,7 +17194,7 @@
     <row r="1286">
       <c r="B1286" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1286">
@@ -17233,7 +17233,7 @@
     <row r="1289">
       <c r="B1289" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1289">
@@ -17246,7 +17246,7 @@
     <row r="1290">
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1290">
@@ -17259,7 +17259,7 @@
     <row r="1291">
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1291">
@@ -17272,7 +17272,7 @@
     <row r="1292">
       <c r="B1292" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1292">
@@ -17285,7 +17285,7 @@
     <row r="1293">
       <c r="B1293" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1293">
@@ -17298,7 +17298,7 @@
     <row r="1294">
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1294">
@@ -17453,7 +17453,7 @@
         <v>22</v>
       </c>
       <c r="D1305">
-        <v>0.0009539088583445345</v>
+        <v>0.0009539088583445344</v>
       </c>
     </row>
     <row r="1306">
@@ -17885,7 +17885,7 @@
     <row r="1338">
       <c r="B1338" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1338">
@@ -18397,7 +18397,7 @@
     <row r="1377">
       <c r="B1377" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1377">
@@ -18532,7 +18532,7 @@
     <row r="1387">
       <c r="B1387" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1387">
@@ -18584,7 +18584,7 @@
     <row r="1391">
       <c r="B1391" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1391">
@@ -18610,7 +18610,7 @@
     <row r="1393">
       <c r="B1393" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1393">
@@ -18623,7 +18623,7 @@
     <row r="1394">
       <c r="B1394" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1394">
@@ -18688,7 +18688,7 @@
     <row r="1399">
       <c r="B1399" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1399">
@@ -18870,7 +18870,7 @@
     <row r="1413">
       <c r="B1413" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1413">
@@ -19005,7 +19005,7 @@
     <row r="1423">
       <c r="B1423" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1423">
@@ -19044,7 +19044,7 @@
     <row r="1426">
       <c r="B1426" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1426">
@@ -19174,7 +19174,7 @@
     <row r="1436">
       <c r="B1436" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1436">
@@ -19239,7 +19239,7 @@
     <row r="1441">
       <c r="B1441" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1441">
@@ -19447,20 +19447,20 @@
     <row r="1457">
       <c r="B1457" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1457">
         <v>23</v>
       </c>
       <c r="D1457">
-        <v>0.0009972683519056497</v>
+        <v>0.0009972683519056495</v>
       </c>
     </row>
     <row r="1458">
       <c r="B1458" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1458">
@@ -19649,7 +19649,7 @@
         <v>23</v>
       </c>
       <c r="D1472">
-        <v>0.0009972683519056497</v>
+        <v>0.0009972683519056495</v>
       </c>
     </row>
     <row r="1473">
@@ -19681,7 +19681,7 @@
     <row r="1475">
       <c r="B1475" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1475">
@@ -19694,7 +19694,7 @@
     <row r="1476">
       <c r="B1476" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1476">
@@ -19733,7 +19733,7 @@
     <row r="1479">
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1479">
@@ -19746,7 +19746,7 @@
     <row r="1480">
       <c r="B1480" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1480">
@@ -19759,7 +19759,7 @@
     <row r="1481">
       <c r="B1481" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1481">
@@ -19863,7 +19863,7 @@
     <row r="1489">
       <c r="B1489" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1489">
@@ -19915,7 +19915,7 @@
     <row r="1493">
       <c r="B1493" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1493">
@@ -19967,7 +19967,7 @@
     <row r="1497">
       <c r="B1497" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1497">
@@ -19993,7 +19993,7 @@
     <row r="1499">
       <c r="B1499" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1499">
@@ -20045,7 +20045,7 @@
     <row r="1503">
       <c r="B1503" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1503">
@@ -20071,7 +20071,7 @@
     <row r="1505">
       <c r="B1505" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1505">
@@ -20227,7 +20227,7 @@
     <row r="1517">
       <c r="B1517" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1517">
@@ -20240,7 +20240,7 @@
     <row r="1518">
       <c r="B1518" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1518">
@@ -20292,14 +20292,14 @@
     <row r="1522">
       <c r="B1522" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1522">
         <v>22</v>
       </c>
       <c r="D1522">
-        <v>0.0009539088583445345</v>
+        <v>0.0009539088583445344</v>
       </c>
     </row>
     <row r="1523">
@@ -20396,7 +20396,7 @@
     <row r="1530">
       <c r="B1530" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1530">
@@ -20435,7 +20435,7 @@
     <row r="1533">
       <c r="B1533" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1533">
@@ -20526,7 +20526,7 @@
     <row r="1540">
       <c r="B1540" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1540">
@@ -20572,7 +20572,7 @@
         <v>22</v>
       </c>
       <c r="D1543">
-        <v>0.0009539088583445345</v>
+        <v>0.0009539088583445344</v>
       </c>
     </row>
     <row r="1544">
@@ -20942,7 +20942,7 @@
     <row r="1572">
       <c r="B1572" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1572">
@@ -21085,7 +21085,7 @@
     <row r="1583">
       <c r="B1583" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1583">
@@ -21303,7 +21303,7 @@
     <row r="1599">
       <c r="B1599" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1599">
@@ -21329,7 +21329,7 @@
     <row r="1601">
       <c r="B1601" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1601">
@@ -21355,7 +21355,7 @@
     <row r="1603">
       <c r="B1603" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1603">
@@ -21459,7 +21459,7 @@
     <row r="1611">
       <c r="B1611" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1611">
@@ -21563,7 +21563,7 @@
     <row r="1619">
       <c r="B1619" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1619">
@@ -21576,7 +21576,7 @@
     <row r="1620">
       <c r="B1620" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1620">
@@ -21693,7 +21693,7 @@
     <row r="1629">
       <c r="B1629" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1629">
@@ -21745,7 +21745,7 @@
     <row r="1633">
       <c r="B1633" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1633">
@@ -21844,41 +21844,6 @@
       </c>
       <c r="D1640">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1642">
-      <c r="A1642" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="1643">
-      <c r="A1643" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1644">
-      <c r="A1644" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1645">
-      <c r="A1645" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1646">
-      <c r="A1646" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
